--- a/templates/Final/Pricing_Config_Template_Annotated_Final.xlsx
+++ b/templates/Final/Pricing_Config_Template_Annotated_Final.xlsx
@@ -8,25 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9B378D-EE97-6F42-AFB3-2828BA96442B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA1E39-DD9C-0E48-B446-4F29CAB46369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18080" yWindow="6600" windowWidth="25260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18080" yWindow="6600" windowWidth="25260" windowHeight="12460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
     <sheet name="Settings" sheetId="1" r:id="rId2"/>
     <sheet name="VanWestendorp" sheetId="2" r:id="rId3"/>
     <sheet name="GaborGranger" sheetId="3" r:id="rId4"/>
-    <sheet name="Bootstrap" sheetId="4" r:id="rId5"/>
-    <sheet name="Validation" sheetId="5" r:id="rId6"/>
-    <sheet name="Output" sheetId="6" r:id="rId7"/>
+    <sheet name="Validation" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="225">
   <si>
     <t>Setting</t>
   </si>
@@ -148,30 +146,18 @@
     <t>gg_180,gg_200,gg_220,gg_240,gg_260,gg_280</t>
   </si>
   <si>
-    <t>response_coding</t>
-  </si>
-  <si>
     <t>binary</t>
   </si>
   <si>
     <t>revenue_optimization</t>
   </si>
   <si>
-    <t>enabled</t>
-  </si>
-  <si>
-    <t>n_iterations</t>
-  </si>
-  <si>
     <t>confidence_level</t>
   </si>
   <si>
     <t>0.95</t>
   </si>
   <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>min_completeness</t>
   </si>
   <si>
@@ -191,33 +177,6 @@
   </si>
   <si>
     <t>600</t>
-  </si>
-  <si>
-    <t>directory</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>filename_prefix</t>
-  </si>
-  <si>
-    <t>coffee_maker_results</t>
-  </si>
-  <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>xlsx</t>
-  </si>
-  <si>
-    <t>save_plots</t>
-  </si>
-  <si>
-    <t>save_data</t>
-  </si>
-  <si>
-    <t>What It Does</t>
   </si>
   <si>
     <t>Valid Options</t>
@@ -502,27 +461,15 @@
     <t>Find revenue-maximizing price</t>
   </si>
   <si>
-    <t>Enable bootstrap CIs</t>
-  </si>
-  <si>
     <t>Number of bootstrap samples</t>
   </si>
   <si>
-    <t>1000-10000 (1000 typical)</t>
-  </si>
-  <si>
     <t>CI level</t>
   </si>
   <si>
     <t>0.90, 0.95, 0.99</t>
   </si>
   <si>
-    <t>Bootstrap method</t>
-  </si>
-  <si>
-    <t>"percentile"</t>
-  </si>
-  <si>
     <t>Minimum % of price questions answered</t>
   </si>
   <si>
@@ -541,32 +488,11 @@
     <t>Maximum valid price</t>
   </si>
   <si>
-    <t>Where to save results</t>
-  </si>
-  <si>
-    <t>Folder path</t>
-  </si>
-  <si>
-    <t>Prefix for output files</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Output file format</t>
-  </si>
-  <si>
-    <r>
-      <t>xlsx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
+    <t>Monotonicity Behavior Explained</t>
+  </si>
+  <si>
+    <r>
+      <t>VW Monotonicity (</t>
     </r>
     <r>
       <rPr>
@@ -576,16 +502,63 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>csv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
+      <t>vw_monotonicity_behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>flag_only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> (recommended): Reports violations but keeps all data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>drop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Removes respondents with price order violations</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>fix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Automatically sorts prices to enforce order (risky)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>GG Monotonicity (</t>
     </r>
     <r>
       <rPr>
@@ -595,21 +568,90 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>both</t>
-    </r>
-  </si>
-  <si>
-    <t>Save visualization PNGs</t>
-  </si>
-  <si>
-    <t>Save processed data</t>
-  </si>
-  <si>
-    <t>Monotonicity Behavior Explained</t>
-  </si>
-  <si>
-    <r>
-      <t>VW Monotonicity (</t>
+      <t>gg_monotonicity_behavior</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>):</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>smooth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> (recommended): Applies isotonic regression to enforce decreasing demand</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>diagnostic_only</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Reports violations only, no smoothing</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>none</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>: No monotonicity checking</t>
+    </r>
+  </si>
+  <si>
+    <t>violation_threshold</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0-1 (e.g., 0.1 = 10%)</t>
+  </si>
+  <si>
+    <t>interpolation_method</t>
+  </si>
+  <si>
+    <t>"linear"</t>
+  </si>
+  <si>
+    <r>
+      <t>linear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
     </r>
     <r>
       <rPr>
@@ -619,63 +661,63 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>vw_monotonicity_behavior</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>flag_only</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> (recommended): Reports violations but keeps all data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>drop</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Removes respondents with price order violations</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>fix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Automatically sorts prices to enforce order (risky)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>GG Monotonicity (</t>
+      <t>spline</t>
+    </r>
+  </si>
+  <si>
+    <t>calculate_confidence</t>
+  </si>
+  <si>
+    <t>bootstrap_iterations</t>
+  </si>
+  <si>
+    <t>1000-10000</t>
+  </si>
+  <si>
+    <t>price_column</t>
+  </si>
+  <si>
+    <t>No (required if long format)</t>
+  </si>
+  <si>
+    <t>response_column</t>
+  </si>
+  <si>
+    <t>respondent_column</t>
+  </si>
+  <si>
+    <t>scale_threshold</t>
+  </si>
+  <si>
+    <t>check_monotonicity</t>
+  </si>
+  <si>
+    <t>calculate_elasticity</t>
+  </si>
+  <si>
+    <t>confidence_intervals</t>
+  </si>
+  <si>
+    <t>flag_outliers</t>
+  </si>
+  <si>
+    <t>outlier_method</t>
+  </si>
+  <si>
+    <t>"iqr"</t>
+  </si>
+  <si>
+    <r>
+      <t>iqr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
     </r>
     <r>
       <rPr>
@@ -685,81 +727,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>gg_monotonicity_behavior</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>):</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>smooth</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> (recommended): Applies isotonic regression to enforce decreasing demand</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>diagnostic_only</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Reports violations only, no smoothing</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>none</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>: No monotonicity checking</t>
-    </r>
-  </si>
-  <si>
-    <t>violation_threshold</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>0.1</t>
-  </si>
-  <si>
-    <t>0-1 (e.g., 0.1 = 10%)</t>
-  </si>
-  <si>
-    <t>interpolation_method</t>
-  </si>
-  <si>
-    <t>"linear"</t>
-  </si>
-  <si>
-    <r>
-      <t>linear</t>
+      <t>zscore</t>
     </r>
     <r>
       <rPr>
@@ -778,63 +746,577 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>spline</t>
-    </r>
-  </si>
-  <si>
-    <t>calculate_confidence</t>
-  </si>
-  <si>
-    <t>bootstrap_iterations</t>
-  </si>
-  <si>
-    <t>1000-10000</t>
-  </si>
-  <si>
-    <t>price_column</t>
-  </si>
-  <si>
-    <t>No (required if long format)</t>
-  </si>
-  <si>
-    <t>response_column</t>
-  </si>
-  <si>
-    <t>respondent_column</t>
-  </si>
-  <si>
-    <t>scale_threshold</t>
-  </si>
-  <si>
-    <t>check_monotonicity</t>
-  </si>
-  <si>
-    <t>calculate_elasticity</t>
-  </si>
-  <si>
-    <t>confidence_intervals</t>
-  </si>
-  <si>
-    <t>flag_outliers</t>
-  </si>
-  <si>
-    <t>outlier_method</t>
-  </si>
-  <si>
-    <t>"iqr"</t>
-  </si>
-  <si>
-    <r>
-      <t>iqr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
+      <t>percentile</t>
+    </r>
+  </si>
+  <si>
+    <t>outlier_threshold</t>
+  </si>
+  <si>
+    <t>1.5-5</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Triggers warning if violations exceed this</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Used in curve calculation</t>
+  </si>
+  <si>
+    <t>Enables bootstrap CIs (can also use Bootstrap sheet)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CI level for bootstrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> For long format data</t>
+  </si>
+  <si>
+    <t>For long format data</t>
+  </si>
+  <si>
+    <t>Checks for monotonic demand</t>
+  </si>
+  <si>
+    <t>Calculates price elasticity</t>
+  </si>
+  <si>
+    <t>Enables outlier detection</t>
+  </si>
+  <si>
+    <t>Outlier detection algorithm</t>
+  </si>
+  <si>
+    <t>Threshold for outlier flagging</t>
+  </si>
+  <si>
+    <t>Your sheet must consist of the white area only</t>
+  </si>
+  <si>
+    <t>Van Westendorp PSM (Price Sensitivity Meter)</t>
+  </si>
+  <si>
+    <r>
+      <t>What it does:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Asks 4 questions about price perception to find an acceptable price </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The 4 questions:</t>
+  </si>
+  <si>
+    <r>
+      <t>At what price is it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>too cheap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> (poor quality)?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>At what price is it a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>bargain</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>At what price is it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>getting expensive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>At what price is it </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>too expensive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <t>Output:</t>
+  </si>
+  <si>
+    <r>
+      <t>Acceptable range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> (PMC to PME)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Optimal range</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> (OPP to IDP)</t>
+    </r>
+  </si>
+  <si>
+    <t>No specific single price, just ranges</t>
+  </si>
+  <si>
+    <r>
+      <t>Best for:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Finding acceptable price ranges, understanding price perceptions, early-stage pricing research</t>
+    </r>
+  </si>
+  <si>
+    <t>Gabor-Granger</t>
+  </si>
+  <si>
+    <r>
+      <t>What it does:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Shows different price points and asks "Would you buy at this price?" to build a </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>demand curve</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>The approach:</t>
+  </si>
+  <si>
+    <t>Respondent sees 5-7 different prices (e.g., $20, $25, $30, $35, $40)</t>
+  </si>
+  <si>
+    <t>For each: "Would you buy at $X?" (Yes/No or scale)</t>
+  </si>
+  <si>
+    <t>Plots % who would buy vs. price</t>
+  </si>
+  <si>
+    <r>
+      <t>Specific optimal price</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> (revenue-maximizing or profit-maximizing)</t>
+    </r>
+  </si>
+  <si>
+    <t>Revenue/profit curves</t>
+  </si>
+  <si>
+    <t>Demand elasticity</t>
+  </si>
+  <si>
+    <r>
+      <t>Best for:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Finding a specific price point, revenue/profit optimization, testing specific price alternatives</t>
+    </r>
+  </si>
+  <si>
+    <t>Quick Comparison</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Van Westendorp</t>
+  </si>
+  <si>
+    <t>Output</t>
+  </si>
+  <si>
+    <t>Price range</t>
+  </si>
+  <si>
+    <t>Specific price</t>
+  </si>
+  <si>
+    <t>Questions</t>
+  </si>
+  <si>
+    <t>4 open-ended prices</t>
+  </si>
+  <si>
+    <t>5-7 buy/don't buy</t>
+  </si>
+  <si>
+    <t>Use when</t>
+  </si>
+  <si>
+    <t>Exploring acceptable ranges</t>
+  </si>
+  <si>
+    <t>Need exact optimal price</t>
+  </si>
+  <si>
+    <t>Strategic</t>
+  </si>
+  <si>
+    <t>Positioning decisions</t>
+  </si>
+  <si>
+    <t>Revenue maximization</t>
+  </si>
+  <si>
+    <r>
+      <t>Use Both:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Run both methods in same survey - Van Westendorp for range, Gabor-Granger for specific price within that range.</t>
+    </r>
+  </si>
+  <si>
+    <t>You can run either 1 or both models</t>
+  </si>
+  <si>
+    <t>delete the sheet you don't use</t>
+  </si>
+  <si>
+    <t>Gabor-Granger: Sequential vs. Monadic</t>
+  </si>
+  <si>
+    <r>
+      <t>There are </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>two approaches</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Sequential (Traditional Gabor-Granger)</t>
+  </si>
+  <si>
+    <r>
+      <t>Stop when they say NO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> ✓</t>
+    </r>
+  </si>
+  <si>
+    <t>Start at middle price (e.g., $30)</t>
+  </si>
+  <si>
+    <t>If YES → Show higher price ($35)</t>
+  </si>
+  <si>
+    <r>
+      <t>If NO → </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>STOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> (or sometimes show lower prices)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Logic:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Once "too expensive," no need to test higher prices</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pros:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Shorter survey, more realistic </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cons:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Less data per respondent</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Monadic (Modern/Simple)</t>
+  </si>
+  <si>
+    <r>
+      <t>Show ALL prices regardless</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> ✓</t>
+    </r>
+  </si>
+  <si>
+    <t>Every respondent sees all 5-7 price points</t>
+  </si>
+  <si>
+    <t>Answer YES/NO for each one</t>
+  </si>
+  <si>
+    <r>
+      <t>Logic:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Collect complete demand curve data</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Pros:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> More data, simpler analysis </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t>Cons:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF141413"/>
+        <rFont val="Helvetica"/>
+        <family val="2"/>
+      </rPr>
+      <t> Less realistic (people know you're testing prices)</t>
+    </r>
+  </si>
+  <si>
+    <t>What Turas Uses:</t>
+  </si>
+  <si>
+    <r>
+      <t>Based on the code structure (wide format with </t>
     </r>
     <r>
       <rPr>
@@ -844,708 +1326,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>zscore</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>percentile</t>
-    </r>
-  </si>
-  <si>
-    <t>outlier_threshold</t>
-  </si>
-  <si>
-    <t>1.5-5</t>
-  </si>
-  <si>
-    <t>show_range</t>
-  </si>
-  <si>
-    <t>show_points</t>
-  </si>
-  <si>
-    <t>plot_width</t>
-  </si>
-  <si>
-    <t>plot_height</t>
-  </si>
-  <si>
-    <t>plot_dpi</t>
-  </si>
-  <si>
-    <t>72-600</t>
-  </si>
-  <si>
-    <t>export_format</t>
-  </si>
-  <si>
-    <t>"png"</t>
-  </si>
-  <si>
-    <r>
-      <t>png</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>pdf</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>svg</t>
-    </r>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Required</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Triggers warning if violations exceed this</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Used in curve calculation</t>
-  </si>
-  <si>
-    <t>Enables bootstrap CIs (can also use Bootstrap sheet)</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> CI level for bootstrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> For long format data</t>
-  </si>
-  <si>
-    <t>For long format data</t>
-  </si>
-  <si>
-    <t>Top-box threshold for scale responses</t>
-  </si>
-  <si>
-    <t>Checks for monotonic demand</t>
-  </si>
-  <si>
-    <t>Calculates price elasticity</t>
-  </si>
-  <si>
-    <t>1-7</t>
-  </si>
-  <si>
-    <t>Enables outlier detection</t>
-  </si>
-  <si>
-    <t>Outlier detection algorithm</t>
-  </si>
-  <si>
-    <t>Threshold for outlier flagging</t>
-  </si>
-  <si>
-    <t>Shows acceptable range shading on VW plot</t>
-  </si>
-  <si>
-    <t>Shows price point markers on VW plot</t>
-  </si>
-  <si>
-    <t>Plot width in inches</t>
-  </si>
-  <si>
-    <t>Plot height in inches</t>
-  </si>
-  <si>
-    <t>Plot resolution</t>
-  </si>
-  <si>
-    <t>Output format for plots</t>
-  </si>
-  <si>
-    <t>Header row - delete this</t>
-  </si>
-  <si>
-    <t>visualisation options</t>
-  </si>
-  <si>
-    <t>Your sheet must consist of the white area only</t>
-  </si>
-  <si>
-    <t>6-20</t>
-  </si>
-  <si>
-    <t>4-15</t>
-  </si>
-  <si>
-    <t>Van Westendorp PSM (Price Sensitivity Meter)</t>
-  </si>
-  <si>
-    <r>
-      <t>What it does:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Asks 4 questions about price perception to find an acceptable price </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>range</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>The 4 questions:</t>
-  </si>
-  <si>
-    <r>
-      <t>At what price is it </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>too cheap</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> (poor quality)?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>At what price is it a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>bargain</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>At what price is it </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>getting expensive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>At what price is it </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>too expensive</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
-    <t>Output:</t>
-  </si>
-  <si>
-    <r>
-      <t>Acceptable range</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> (PMC to PME)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Optimal range</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> (OPP to IDP)</t>
-    </r>
-  </si>
-  <si>
-    <t>No specific single price, just ranges</t>
-  </si>
-  <si>
-    <r>
-      <t>Best for:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Finding acceptable price ranges, understanding price perceptions, early-stage pricing research</t>
-    </r>
-  </si>
-  <si>
-    <t>Gabor-Granger</t>
-  </si>
-  <si>
-    <r>
-      <t>What it does:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Shows different price points and asks "Would you buy at this price?" to build a </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>demand curve</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>The approach:</t>
-  </si>
-  <si>
-    <t>Respondent sees 5-7 different prices (e.g., $20, $25, $30, $35, $40)</t>
-  </si>
-  <si>
-    <t>For each: "Would you buy at $X?" (Yes/No or scale)</t>
-  </si>
-  <si>
-    <t>Plots % who would buy vs. price</t>
-  </si>
-  <si>
-    <r>
-      <t>Specific optimal price</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> (revenue-maximizing or profit-maximizing)</t>
-    </r>
-  </si>
-  <si>
-    <t>Revenue/profit curves</t>
-  </si>
-  <si>
-    <t>Demand elasticity</t>
-  </si>
-  <si>
-    <r>
-      <t>Best for:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Finding a specific price point, revenue/profit optimization, testing specific price alternatives</t>
-    </r>
-  </si>
-  <si>
-    <t>Quick Comparison</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Van Westendorp</t>
-  </si>
-  <si>
-    <t>Output</t>
-  </si>
-  <si>
-    <t>Price range</t>
-  </si>
-  <si>
-    <t>Specific price</t>
-  </si>
-  <si>
-    <t>Questions</t>
-  </si>
-  <si>
-    <t>4 open-ended prices</t>
-  </si>
-  <si>
-    <t>5-7 buy/don't buy</t>
-  </si>
-  <si>
-    <t>Use when</t>
-  </si>
-  <si>
-    <t>Exploring acceptable ranges</t>
-  </si>
-  <si>
-    <t>Need exact optimal price</t>
-  </si>
-  <si>
-    <t>Strategic</t>
-  </si>
-  <si>
-    <t>Positioning decisions</t>
-  </si>
-  <si>
-    <t>Revenue maximization</t>
-  </si>
-  <si>
-    <r>
-      <t>Use Both:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Run both methods in same survey - Van Westendorp for range, Gabor-Granger for specific price within that range.</t>
-    </r>
-  </si>
-  <si>
-    <t>You can run either 1 or both models</t>
-  </si>
-  <si>
-    <t>delete the sheet you don't use</t>
-  </si>
-  <si>
-    <t>Gabor-Granger: Sequential vs. Monadic</t>
-  </si>
-  <si>
-    <r>
-      <t>There are </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>two approaches</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-  </si>
-  <si>
-    <t>1. Sequential (Traditional Gabor-Granger)</t>
-  </si>
-  <si>
-    <r>
-      <t>Stop when they say NO</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> ✓</t>
-    </r>
-  </si>
-  <si>
-    <t>Start at middle price (e.g., $30)</t>
-  </si>
-  <si>
-    <t>If YES → Show higher price ($35)</t>
-  </si>
-  <si>
-    <r>
-      <t>If NO → </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>STOP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> (or sometimes show lower prices)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Logic:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Once "too expensive," no need to test higher prices</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Pros:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Shorter survey, more realistic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cons:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Less data per respondent</t>
-    </r>
-  </si>
-  <si>
-    <t>2. Monadic (Modern/Simple)</t>
-  </si>
-  <si>
-    <r>
-      <t>Show ALL prices regardless</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> ✓</t>
-    </r>
-  </si>
-  <si>
-    <t>Every respondent sees all 5-7 price points</t>
-  </si>
-  <si>
-    <t>Answer YES/NO for each one</t>
-  </si>
-  <si>
-    <r>
-      <t>Logic:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Collect complete demand curve data</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Pros:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> More data, simpler analysis </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t>Cons:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF141413"/>
-        <rFont val="Helvetica"/>
-        <family val="2"/>
-      </rPr>
-      <t> Less realistic (people know you're testing prices)</t>
-    </r>
-  </si>
-  <si>
-    <t>What Turas Uses:</t>
-  </si>
-  <si>
-    <r>
-      <t>Based on the code structure (wide format with </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF383A42"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>response_columns</t>
     </r>
     <r>
@@ -1639,6 +1419,24 @@
   </si>
   <si>
     <t>when running Gabor-Granger</t>
+  </si>
+  <si>
+    <t>response_type</t>
+  </si>
+  <si>
+    <t>Minimum response value to count as "would purchase"</t>
+  </si>
+  <si>
+    <t>Numeric, must be ≤ max of your scale</t>
+  </si>
+  <si>
+    <t>4 (for 1-5 scale top 2 box)</t>
+  </si>
+  <si>
+    <t>output_file</t>
+  </si>
+  <si>
+    <t>output file name - inlcude full path</t>
   </si>
 </sst>
 </file>
@@ -2098,7 +1896,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C19A93E-EF5A-1449-AAB2-9B625CF53829}">
   <dimension ref="B3:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
@@ -2106,132 +1904,132 @@
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>232</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="23" x14ac:dyDescent="0.25">
       <c r="B7" s="16" t="s">
-        <v>194</v>
+        <v>148</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>195</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>196</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B13" s="4" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B14" s="4" t="s">
-        <v>198</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
-        <v>199</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>202</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>203</v>
+        <v>157</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B22" s="4" t="s">
-        <v>204</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
-        <v>205</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="2:2" ht="23" x14ac:dyDescent="0.25">
       <c r="B28" s="16" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
-        <v>207</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B32" s="3" t="s">
-        <v>208</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B34" s="4" t="s">
-        <v>209</v>
+        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>210</v>
+        <v>164</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
-        <v>211</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B38" s="3" t="s">
-        <v>201</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B40" s="3" t="s">
-        <v>212</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B41" s="4" t="s">
-        <v>213</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
-        <v>214</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B44" s="3" t="s">
-        <v>215</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:2" ht="23" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
-        <v>216</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="18" x14ac:dyDescent="0.2">
@@ -2239,217 +2037,217 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
-        <v>217</v>
+        <v>171</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>218</v>
+        <v>172</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>206</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>220</v>
+        <v>174</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>221</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>222</v>
+        <v>176</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>223</v>
+        <v>177</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>225</v>
+        <v>179</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>226</v>
+        <v>180</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
-        <v>228</v>
+        <v>182</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>229</v>
+        <v>183</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>230</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B56" s="3" t="s">
-        <v>231</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="23" x14ac:dyDescent="0.25">
       <c r="B60" s="17" t="s">
-        <v>234</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B62" s="4" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B64" s="18" t="s">
-        <v>236</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B66" s="19" t="s">
-        <v>237</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
-        <v>238</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>239</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
-        <v>240</v>
+        <v>194</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B70" s="19" t="s">
-        <v>241</v>
+        <v>195</v>
       </c>
     </row>
     <row r="72" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B72" s="19" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
     </row>
     <row r="76" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B76" s="18" t="s">
-        <v>243</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B78" s="19" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B79" s="4" t="s">
-        <v>245</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
-        <v>246</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B81" s="19" t="s">
-        <v>247</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B83" s="19" t="s">
-        <v>248</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="2:2" ht="23" x14ac:dyDescent="0.25">
       <c r="B87" s="17" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B89" s="4" t="s">
-        <v>250</v>
+        <v>204</v>
       </c>
     </row>
     <row r="91" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B91" s="19" t="s">
-        <v>251</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B93" s="20" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="20" t="s">
-        <v>253</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" s="20" t="s">
-        <v>254</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B97" s="4" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
     </row>
     <row r="101" spans="2:2" ht="23" x14ac:dyDescent="0.25">
       <c r="B101" s="17" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
     </row>
     <row r="103" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B103" s="4" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
     </row>
     <row r="105" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B105" s="4" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>259</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
-        <v>260</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
-        <v>261</v>
+        <v>215</v>
       </c>
     </row>
     <row r="110" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B110" s="19" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
     </row>
     <row r="114" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B114" s="19" t="s">
-        <v>263</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +2260,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A10" sqref="A10:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2475,7 +2273,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2491,13 +2289,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2506,10 +2304,10 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="7" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>3</v>
@@ -2521,10 +2319,10 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="7" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>5</v>
@@ -2536,10 +2334,10 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="7" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>7</v>
@@ -2551,10 +2349,10 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="7" t="s">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>9</v>
@@ -2566,10 +2364,10 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="7" t="s">
-        <v>73</v>
+        <v>60</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>11</v>
@@ -2581,10 +2379,10 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="7" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>13</v>
@@ -2596,10 +2394,10 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="7" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>15</v>
@@ -2611,10 +2409,10 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="7" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>17</v>
@@ -2626,10 +2424,10 @@
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="7" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>19</v>
@@ -2641,10 +2439,10 @@
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="7" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E12" s="8" t="s">
         <v>21</v>
@@ -2656,18 +2454,29 @@
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="7" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+    </row>
     <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="B17" s="11"/>
     </row>
@@ -2677,7 +2486,7 @@
     </row>
     <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="12" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="B19" s="11"/>
     </row>
@@ -2687,19 +2496,19 @@
     </row>
     <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="B21" s="11"/>
     </row>
     <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="B22" s="11"/>
     </row>
     <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B23" s="11"/>
     </row>
@@ -2709,7 +2518,7 @@
     </row>
     <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="B25" s="11"/>
     </row>
@@ -2719,19 +2528,19 @@
     </row>
     <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="B28" s="11"/>
     </row>
     <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
-        <v>133</v>
+        <v>108</v>
       </c>
       <c r="B29" s="11"/>
     </row>
@@ -2761,7 +2570,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -2777,16 +2586,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2795,13 +2604,13 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>25</v>
@@ -2813,13 +2622,13 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>27</v>
@@ -2831,13 +2640,13 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>29</v>
@@ -2849,13 +2658,13 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>31</v>
@@ -2867,13 +2676,13 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F7" s="8" t="b">
         <v>1</v>
@@ -2881,92 +2690,92 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>134</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>170</v>
+        <v>136</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>136</v>
+        <v>111</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E10" s="8" t="b">
         <v>0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E12" s="8">
         <v>1000</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2979,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2991,7 +2800,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -3007,16 +2816,16 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
@@ -3025,13 +2834,13 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>35</v>
@@ -3043,13 +2852,13 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>37</v>
@@ -3061,13 +2870,13 @@
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>39</v>
@@ -3075,35 +2884,35 @@
     </row>
     <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>33</v>
@@ -3111,83 +2920,83 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="8" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>148</v>
+        <v>123</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F11" s="8">
-        <v>3</v>
+        <v>221</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>149</v>
+        <v>124</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>177</v>
+        <v>142</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F12" s="8" t="b">
         <v>1</v>
@@ -3195,17 +3004,17 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>150</v>
+        <v>125</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F13" s="8" t="b">
         <v>1</v>
@@ -3213,17 +3022,17 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="B14" s="5"/>
       <c r="C14" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F14" s="8" t="b">
         <v>0</v>
@@ -3231,17 +3040,17 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="B15" s="5"/>
       <c r="C15" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>143</v>
+        <v>118</v>
       </c>
       <c r="F15" s="8">
         <v>1000</v>
@@ -3249,20 +3058,20 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3272,113 +3081,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="8">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -3394,7 +3096,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -3410,49 +3112,49 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>168</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>167</v>
+        <v>133</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>33</v>
@@ -3460,53 +3162,53 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="8" t="s">
-        <v>169</v>
+        <v>135</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>152</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>180</v>
+        <v>144</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="F7" s="8" t="b">
         <v>1</v>
@@ -3514,300 +3216,38 @@
     </row>
     <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>153</v>
+        <v>128</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>181</v>
+        <v>145</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="8" t="s">
-        <v>135</v>
+        <v>110</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>182</v>
+        <v>146</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>157</v>
+        <v>132</v>
       </c>
       <c r="F9" s="8">
         <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>191</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F9" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="F10" s="8" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="F11" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>193</v>
-      </c>
-      <c r="F12" s="8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/templates/Final/Pricing_Config_Template_Annotated_Final.xlsx
+++ b/templates/Final/Pricing_Config_Template_Annotated_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duncan/Documents/Turas/templates/Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98EA1E39-DD9C-0E48-B446-4F29CAB46369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2EBB4A9-F5E1-0642-9A9C-BBAE97D0A542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18080" yWindow="6600" windowWidth="25260" windowHeight="12460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18080" yWindow="6600" windowWidth="25260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="7" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="227">
   <si>
     <t>Setting</t>
   </si>
@@ -1437,13 +1437,19 @@
   </si>
   <si>
     <t>output file name - inlcude full path</t>
+  </si>
+  <si>
+    <t>Version 10.0 Last updated 4 December 2025</t>
+  </si>
+  <si>
+    <t>Pricing config Template - Instructions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1526,6 +1532,19 @@
       <name val="Helvetica"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF366092"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1574,7 +1593,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1598,6 +1617,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1894,363 +1917,390 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C19A93E-EF5A-1449-AAB2-9B625CF53829}">
-  <dimension ref="B3:D114"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="24"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="2:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="B7" s="16" t="s">
+    <row r="8" spans="1:6" ht="23" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="9" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B9" s="3" t="s">
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="4" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B14" s="4" t="s">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="4" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="15" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B15" s="4" t="s">
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="B16" s="4" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="16" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B16" s="4" t="s">
+    <row r="17" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B18" s="3" t="s">
+    <row r="19" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B20" s="3" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B22" s="4" t="s">
+    <row r="23" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B23" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
+    <row r="25" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="28" spans="2:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="B28" s="16" t="s">
+    <row r="29" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B29" s="16" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="30" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B30" s="3" t="s">
+    <row r="31" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="32" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B32" s="3" t="s">
+    <row r="33" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="3" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="34" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B34" s="4" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="35" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B35" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B36" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B37" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B38" s="3" t="s">
+    <row r="39" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B39" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B40" s="3" t="s">
+    <row r="41" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B41" s="3" t="s">
         <v>166</v>
-      </c>
-    </row>
-    <row r="41" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B41" s="4" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="42" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B43" s="4" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="44" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
+    <row r="45" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="2:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="B48" s="16" t="s">
+    <row r="49" spans="2:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="B49" s="16" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>160</v>
-      </c>
+    <row r="50" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B50" s="4"/>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B52" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B54" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B56" s="3" t="s">
+    <row r="57" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B57" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="60" spans="2:4" ht="23" x14ac:dyDescent="0.25">
-      <c r="B60" s="17" t="s">
+    <row r="61" spans="2:4" ht="23" x14ac:dyDescent="0.25">
+      <c r="B61" s="17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B62" s="4" t="s">
+    <row r="63" spans="2:4" ht="18" x14ac:dyDescent="0.2">
+      <c r="B63" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="64" spans="2:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="B64" s="18" t="s">
+    <row r="65" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B65" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B66" s="19" t="s">
+    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B67" s="19" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="67" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B67" s="4" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B68" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B69" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B70" s="4" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="70" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B70" s="19" t="s">
+    <row r="71" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B71" s="19" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="72" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B72" s="19" t="s">
+    <row r="73" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B73" s="19" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="76" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B76" s="18" t="s">
+    <row r="77" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B77" s="18" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="78" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B78" s="19" t="s">
+    <row r="79" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B79" s="19" t="s">
         <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B79" s="4" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="80" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B80" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B81" s="4" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="81" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B81" s="19" t="s">
+    <row r="82" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B82" s="19" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="83" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B83" s="19" t="s">
+    <row r="84" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B84" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="2:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="B87" s="17" t="s">
+    <row r="88" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B88" s="17" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="89" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B89" s="4" t="s">
+    <row r="90" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B90" s="4" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="91" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B91" s="19" t="s">
+    <row r="92" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B92" s="19" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="20" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B94" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B95" s="20" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B96" s="20" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="97" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B97" s="4" t="s">
+    <row r="98" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B98" s="4" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="101" spans="2:2" ht="23" x14ac:dyDescent="0.25">
-      <c r="B101" s="17" t="s">
+    <row r="102" spans="2:2" ht="23" x14ac:dyDescent="0.25">
+      <c r="B102" s="17" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="103" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B103" s="4" t="s">
+    <row r="104" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B104" s="4" t="s">
         <v>211</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B105" s="4" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="106" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B106" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B107" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="108" spans="2:2" ht="18" x14ac:dyDescent="0.2">
       <c r="B108" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B109" s="4" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B110" s="19" t="s">
+    <row r="111" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B111" s="19" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="114" spans="2:2" ht="18" x14ac:dyDescent="0.2">
-      <c r="B114" s="19" t="s">
+    <row r="115" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B115" s="19" t="s">
         <v>217</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2788,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
